--- a/config_debug/systgxt_config.xlsx
+++ b/config_debug/systgxt_config.xlsx
@@ -68,10 +68,6 @@
   </si>
   <si>
     <t>&lt;size=42&gt;&lt;color=#000000&gt;2.好友如何下载游戏？&lt;/color&gt;&lt;/size&gt;</t>
-  </si>
-  <si>
-    <t>"1）点击“邀请好友”按钮，会出现带有您推广码的下载海报，点击“微信分享”按钮的同时海报会保存到本地相册，将图片发给您的好友扫码下载游戏即可。",
-  "&lt;color=#FF0000&gt;海报不具备关系绑定功能，一定要让好友在个人中心填写推广码哦！&lt;/color&gt;","2）关注公众号“畅游新世界”，转发给好友下载游戏即可"</t>
   </si>
   <si>
     <t>&lt;size=42&gt;&lt;color=#000000&gt;3.如何赚钱？&lt;/color&gt;&lt;/size&gt;</t>
@@ -251,24 +247,21 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"搜索公众号“彩云新世界”，点击“联系客服”咨询。",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"在【我的收益】中可查看好友列表和任务状态",</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"推广问题：添加鲸小哥微信JY400888咨询","游戏问题：搜索公众号“畅游新世界”，点击“联系客服”咨询"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"banner_001","banner_002"</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">"推广奖励金以现金形式发放，在【我的收益】界面绑定支付宝可提取。每日可提取1次，10元起提，每次上限200元。",
   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1）点击“邀请好友”按钮，会出现带有您推广码的下载海报，点击“微信分享”按钮的同时海报会保存到本地相册，将图片发给您的好友扫码下载游戏即可。",
+  "&lt;color=#FF0000&gt;海报不具备关系绑定功能，一定要让好友在个人中心填写推广码哦！&lt;/color&gt;","2）关注公众号“鲸鱼初纪元”，转发给好友下载游戏即可"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -276,6 +269,14 @@
 "1）好友首次在兑换商城兑换任意奖励，您得3元",
 "2）好友成为VIP2，您得9元",
 "3）好友成为VIP3，您得18元",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"搜索公众号“彩云新世界”，点击“联系客服”咨询。",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"游戏问题：搜索公众号“鲸鱼初纪元”，点击“联系客服”咨询。",</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -363,7 +364,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -405,6 +406,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -794,7 +798,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E3" s="5">
         <v>0</v>
@@ -1394,7 +1398,7 @@
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1458,8 +1462,8 @@
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>16</v>
+      <c r="C3" s="14" t="s">
+        <v>32</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -1480,10 +1484,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -1504,10 +1508,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -1528,10 +1532,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -1552,10 +1556,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -1576,10 +1580,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -1600,10 +1604,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -1624,10 +1628,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -1648,10 +1652,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -1672,10 +1676,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>

--- a/config_debug/systgxt_config.xlsx
+++ b/config_debug/systgxt_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -195,14 +195,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"邀请1位好友，您最高可赚30元，方式如下：",
-"1）好友首次在兑换商城兑换任意奖励，您得3元",
-"2）好友成为VIP2，您得9元",
-"3）好友成为VIP3，您得18元",
-"&lt;color=#FF0000&gt;若好友在绑定成为您的下级之前已经完成任务，则绑定后无法为您贡献对应任务的奖励，好友列表中该任务状态会显示为“无效”。&lt;/color&gt;"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>&lt;size=42&gt;&lt;color=#000000&gt;</t>
     </r>
@@ -277,6 +269,13 @@
   <si>
     <t xml:space="preserve">"推广奖励金以现金形式发放，在【我的收益】界面绑定支付宝可提取。每日可提取1次，10元起提，每次上限200元。",
   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"邀请1位好友，您最高可赚30元，方式如下：",
+"1）好友首次在兑换商城兑换任意奖励，您得3元",
+"2）好友成为VIP2，您得9元",
+"3）好友成为VIP3，您得18元",</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -795,7 +794,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3" s="5">
         <v>0</v>
@@ -1394,8 +1393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1556,7 +1555,7 @@
         <v>23</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -1604,7 +1603,7 @@
         <v>25</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -1620,7 +1619,7 @@
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
     </row>
-    <row r="10" spans="1:16" ht="81" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" ht="54" x14ac:dyDescent="0.15">
       <c r="A10" s="10">
         <v>9</v>
       </c>
@@ -1628,7 +1627,7 @@
         <v>26</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -1649,10 +1648,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -1673,10 +1672,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>30</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>31</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>

--- a/config_debug/systgxt_config.xlsx
+++ b/config_debug/systgxt_config.xlsx
@@ -75,7 +75,7 @@
     <t>&lt;size=42&gt;&lt;color=#000000&gt;3.如何赚钱？&lt;/color&gt;&lt;/size&gt;</t>
   </si>
   <si>
-    <t>"邀请1位好友，您最高可赚30元，方式如下：","1）好友首次在兑换商城兑换任意奖励，您得3元","2）好友成为VIP2，您得9元","3）好友成为VIP3，您得18元","&lt;color=#FF0000&gt;若好友在绑定成为您的下级之前已经完成任务，则绑定后无法为您贡献对应任务的奖励，好友列表中该任务状态会显示为“无效”。&lt;/color&gt;"</t>
+    <t>"邀请1位好友，您最高可赚30元，方式如下：","1）好友首次在限时红包兑换任意奖励，您得3元","2）好友成为VIP2，您得9元","3）好友成为VIP3，您得18元","&lt;color=#FF0000&gt;若好友在绑定成为您的下级之前已经完成任务，则绑定后无法为您贡献对应任务的奖励，好友列表中该任务状态会显示为“无效”。&lt;/color&gt;"</t>
   </si>
   <si>
     <t>&lt;size=42&gt;&lt;color=#000000&gt;4.如何查看并提取收益？&lt;/color&gt;&lt;/size&gt;</t>
@@ -211,7 +211,7 @@
   </si>
   <si>
     <t>"邀请1位好友，您最高可赚30元，方式如下：",
-"1）好友首次在兑换商城兑换任意奖励，您得3元",
+"1）好友首次在限时红包兑换任意奖励，您得3元",
 "2）好友成为VIP2，您得9元",
 "3）好友成为VIP3，您得18元",</t>
   </si>
@@ -298,12 +298,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -313,9 +313,31 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -327,9 +349,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -344,44 +380,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -396,15 +395,23 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -418,18 +425,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -442,28 +442,21 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -490,19 +483,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,13 +609,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,139 +645,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -695,6 +676,65 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -729,56 +769,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -787,15 +777,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -804,10 +785,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -816,133 +797,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -968,10 +949,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -980,28 +961,28 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2037,7 +2018,7 @@
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
